--- a/BaseI.xlsx
+++ b/BaseI.xlsx
@@ -2581,7 +2581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9493,9 +9493,6 @@
       <c r="DJ88" t="s">
         <v>686</v>
       </c>
-      <c r="DW88">
-        <v>1</v>
-      </c>
     </row>
     <row r="89" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -9575,6 +9572,9 @@
       </c>
       <c r="DJ89" t="s">
         <v>686</v>
+      </c>
+      <c r="DW89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:141" x14ac:dyDescent="0.25">

--- a/BaseI.xlsx
+++ b/BaseI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="687">
   <si>
     <t>id</t>
   </si>
@@ -1647,9 +1647,6 @@
   </si>
   <si>
     <t>Summon 2 Imps</t>
-  </si>
-  <si>
-    <t>summons new imps every time they are killed</t>
   </si>
   <si>
     <t>Blood Stone</t>
@@ -3015,10 +3012,10 @@
         <v>153</v>
       </c>
       <c r="EY1" t="s">
+        <v>685</v>
+      </c>
+      <c r="EZ1" t="s">
         <v>686</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>687</v>
       </c>
       <c r="FA1" t="s">
         <v>154</v>
@@ -11758,16 +11755,13 @@
       <c r="DZ299" t="s">
         <v>540</v>
       </c>
-      <c r="EK299" t="s">
-        <v>541</v>
-      </c>
     </row>
     <row r="300" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C300" t="s">
         <v>378</v>
@@ -11799,7 +11793,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C301" t="s">
         <v>378</v>
@@ -11825,7 +11819,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C302" t="s">
         <v>378</v>
@@ -11851,7 +11845,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C303" t="s">
         <v>378</v>
@@ -11883,7 +11877,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C304" t="s">
         <v>378</v>
@@ -11909,7 +11903,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C305" t="s">
         <v>378</v>
@@ -11927,7 +11921,7 @@
         <v>-20</v>
       </c>
       <c r="EK305" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="306" spans="1:154" x14ac:dyDescent="0.25">
@@ -11935,7 +11929,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C306" t="s">
         <v>378</v>
@@ -11958,7 +11952,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C307" t="s">
         <v>378</v>
@@ -11976,7 +11970,7 @@
         <v>1</v>
       </c>
       <c r="DY307" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="308" spans="1:154" x14ac:dyDescent="0.25">
@@ -11984,7 +11978,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C308" t="s">
         <v>378</v>
@@ -12010,7 +12004,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C309" t="s">
         <v>378</v>
@@ -12034,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="EK309" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="310" spans="1:154" x14ac:dyDescent="0.25">
@@ -12042,7 +12036,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C310" t="s">
         <v>378</v>
@@ -12071,7 +12065,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C311" t="s">
         <v>378</v>
@@ -12098,7 +12092,7 @@
         <v>538</v>
       </c>
       <c r="EK311" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="EX311" t="s">
         <v>426</v>
@@ -12109,7 +12103,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C312" t="s">
         <v>378</v>
@@ -12138,7 +12132,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C313" t="s">
         <v>378</v>
@@ -12173,7 +12167,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C314" t="s">
         <v>378</v>
@@ -12217,7 +12211,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C315" t="s">
         <v>378</v>
@@ -12246,7 +12240,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C316" t="s">
         <v>378</v>
@@ -12293,7 +12287,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C317" t="s">
         <v>378</v>
@@ -12328,7 +12322,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C318" t="s">
         <v>378</v>
@@ -12351,7 +12345,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C319" t="s">
         <v>378</v>
@@ -12372,7 +12366,7 @@
         <v>2</v>
       </c>
       <c r="EK319" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="320" spans="1:154" x14ac:dyDescent="0.25">
@@ -12380,7 +12374,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C320" t="s">
         <v>378</v>
@@ -12407,7 +12401,7 @@
         <v>4</v>
       </c>
       <c r="EK320" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="321" spans="1:154" x14ac:dyDescent="0.25">
@@ -12415,7 +12409,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C321" t="s">
         <v>378</v>
@@ -12439,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="DY321" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="322" spans="1:154" x14ac:dyDescent="0.25">
@@ -12447,7 +12441,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C322" t="s">
         <v>378</v>
@@ -12471,7 +12465,7 @@
         <v>538</v>
       </c>
       <c r="EK322" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="EX322" t="s">
         <v>426</v>
@@ -12482,7 +12476,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C323" t="s">
         <v>378</v>
@@ -12511,7 +12505,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C324" t="s">
         <v>378</v>
@@ -12535,7 +12529,7 @@
         <v>470</v>
       </c>
       <c r="EK324" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="325" spans="1:154" x14ac:dyDescent="0.25">
@@ -12543,7 +12537,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C325" t="s">
         <v>378</v>
@@ -12567,10 +12561,10 @@
         <v>1</v>
       </c>
       <c r="CU325" t="s">
+        <v>576</v>
+      </c>
+      <c r="EK325" t="s">
         <v>577</v>
-      </c>
-      <c r="EK325" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="326" spans="1:154" x14ac:dyDescent="0.25">
@@ -12578,7 +12572,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C326" t="s">
         <v>378</v>
@@ -12599,10 +12593,10 @@
         <v>6</v>
       </c>
       <c r="DY326" t="s">
+        <v>579</v>
+      </c>
+      <c r="EK326" t="s">
         <v>580</v>
-      </c>
-      <c r="EK326" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="327" spans="1:154" x14ac:dyDescent="0.25">
@@ -12610,7 +12604,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C327" t="s">
         <v>378</v>
@@ -12633,7 +12627,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C328" t="s">
         <v>378</v>
@@ -12656,7 +12650,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C329" t="s">
         <v>378</v>
@@ -12677,7 +12671,7 @@
         <v>2</v>
       </c>
       <c r="EK329" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="EQ329">
         <v>10</v>
@@ -12688,7 +12682,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C330" t="s">
         <v>378</v>
@@ -12747,7 +12741,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C331" t="s">
         <v>378</v>
@@ -12768,10 +12762,10 @@
         <v>4</v>
       </c>
       <c r="EA331" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="EB331" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="332" spans="1:154" x14ac:dyDescent="0.25">
@@ -12779,7 +12773,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C332" t="s">
         <v>378</v>
@@ -12805,7 +12799,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C333" t="s">
         <v>378</v>
@@ -12828,7 +12822,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C334" t="s">
         <v>378</v>
@@ -12852,7 +12846,7 @@
         <v>-3</v>
       </c>
       <c r="DY334" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="335" spans="1:154" x14ac:dyDescent="0.25">
@@ -12860,7 +12854,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C335" t="s">
         <v>378</v>
@@ -12881,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="DY335" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="336" spans="1:154" x14ac:dyDescent="0.25">
@@ -12889,7 +12883,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C336" t="s">
         <v>378</v>
@@ -12924,7 +12918,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C337" t="s">
         <v>378</v>
@@ -12945,10 +12939,10 @@
         <v>8</v>
       </c>
       <c r="EA337" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="EB337" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="338" spans="1:146" x14ac:dyDescent="0.25">
@@ -12956,7 +12950,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C338" t="s">
         <v>378</v>
@@ -12989,10 +12983,10 @@
         <v>1</v>
       </c>
       <c r="EA338" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="EB338" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="339" spans="1:146" x14ac:dyDescent="0.25">
@@ -13000,7 +12994,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C339" t="s">
         <v>378</v>
@@ -13018,10 +13012,10 @@
         <v>5</v>
       </c>
       <c r="DZ339" t="s">
+        <v>600</v>
+      </c>
+      <c r="EK339" t="s">
         <v>601</v>
-      </c>
-      <c r="EK339" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="340" spans="1:146" x14ac:dyDescent="0.25">
@@ -13029,7 +13023,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C340" t="s">
         <v>378</v>
@@ -13062,7 +13056,7 @@
         <v>247</v>
       </c>
       <c r="EA340" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="EK340" t="s">
         <v>494</v>
@@ -13073,7 +13067,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C341" t="s">
         <v>378</v>
@@ -13094,10 +13088,10 @@
         <v>1</v>
       </c>
       <c r="EA341" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="EB341" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="342" spans="1:146" x14ac:dyDescent="0.25">
@@ -13105,7 +13099,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C342" t="s">
         <v>378</v>
@@ -13144,7 +13138,7 @@
         <v>312</v>
       </c>
       <c r="DY342" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="EP342">
         <v>1</v>
@@ -13155,7 +13149,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C343" t="s">
         <v>378</v>
@@ -13176,7 +13170,7 @@
         <v>2</v>
       </c>
       <c r="DZ343" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="344" spans="1:146" x14ac:dyDescent="0.25">
@@ -13184,7 +13178,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C344" t="s">
         <v>378</v>
@@ -13211,13 +13205,13 @@
         <v>1</v>
       </c>
       <c r="DZ344" t="s">
+        <v>610</v>
+      </c>
+      <c r="EA344" t="s">
         <v>611</v>
       </c>
-      <c r="EA344" t="s">
-        <v>612</v>
-      </c>
       <c r="EB344" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="EK344" t="s">
         <v>513</v>
@@ -13228,7 +13222,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C345" t="s">
         <v>378</v>
@@ -13255,10 +13249,10 @@
         <v>30</v>
       </c>
       <c r="DY345" t="s">
+        <v>613</v>
+      </c>
+      <c r="EA345" t="s">
         <v>614</v>
-      </c>
-      <c r="EA345" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="346" spans="1:146" x14ac:dyDescent="0.25">
@@ -13266,7 +13260,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C346" t="s">
         <v>378</v>
@@ -13290,7 +13284,7 @@
         <v>1</v>
       </c>
       <c r="EK346" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="347" spans="1:146" x14ac:dyDescent="0.25">
@@ -13298,7 +13292,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C347" t="s">
         <v>378</v>
@@ -13319,7 +13313,7 @@
         <v>4</v>
       </c>
       <c r="DY347" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="348" spans="1:146" x14ac:dyDescent="0.25">
@@ -13327,7 +13321,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C348" t="s">
         <v>378</v>
@@ -13348,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="DY348" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="349" spans="1:146" x14ac:dyDescent="0.25">
@@ -13356,7 +13350,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C349" t="s">
         <v>378</v>
@@ -13377,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="EK349" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="350" spans="1:146" x14ac:dyDescent="0.25">
@@ -13385,7 +13379,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C350" t="s">
         <v>378</v>
@@ -13420,7 +13414,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C351" t="s">
         <v>378</v>
@@ -13441,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="DZ351" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="EI351" t="s">
         <v>470</v>
@@ -13452,7 +13446,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C352" t="s">
         <v>378</v>
@@ -13467,7 +13461,7 @@
         <v>5</v>
       </c>
       <c r="DZ352" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="353" spans="1:153" x14ac:dyDescent="0.25">
@@ -13475,7 +13469,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C353" t="s">
         <v>378</v>
@@ -13496,7 +13490,7 @@
         <v>3</v>
       </c>
       <c r="EK353" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="354" spans="1:153" x14ac:dyDescent="0.25">
@@ -13504,7 +13498,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C354" t="s">
         <v>378</v>
@@ -13534,10 +13528,10 @@
         <v>3</v>
       </c>
       <c r="DX354" t="s">
+        <v>631</v>
+      </c>
+      <c r="EJ354" t="s">
         <v>632</v>
-      </c>
-      <c r="EJ354" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="355" spans="1:153" x14ac:dyDescent="0.25">
@@ -13545,7 +13539,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C355" t="s">
         <v>378</v>
@@ -13569,10 +13563,10 @@
         <v>422</v>
       </c>
       <c r="EA355" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="EB355" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="356" spans="1:153" x14ac:dyDescent="0.25">
@@ -13580,7 +13574,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C356" t="s">
         <v>378</v>
@@ -13604,7 +13598,7 @@
         <v>5</v>
       </c>
       <c r="EA356" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="357" spans="1:153" x14ac:dyDescent="0.25">
@@ -13612,7 +13606,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C357" t="s">
         <v>378</v>
@@ -13644,7 +13638,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C358" t="s">
         <v>378</v>
@@ -13668,7 +13662,7 @@
         <v>5</v>
       </c>
       <c r="DV358" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="359" spans="1:153" x14ac:dyDescent="0.25">
@@ -13676,7 +13670,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C359" t="s">
         <v>378</v>
@@ -13721,10 +13715,10 @@
         <v>283</v>
       </c>
       <c r="EA359" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="EB359" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="EW359">
         <v>307</v>
@@ -13735,7 +13729,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C360" t="s">
         <v>378</v>
@@ -13762,10 +13756,10 @@
         <v>-1</v>
       </c>
       <c r="DY360" t="s">
+        <v>643</v>
+      </c>
+      <c r="EK360" t="s">
         <v>644</v>
-      </c>
-      <c r="EK360" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="361" spans="1:153" x14ac:dyDescent="0.25">
@@ -13773,7 +13767,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C361" t="s">
         <v>156</v>
@@ -13794,7 +13788,7 @@
         <v>80</v>
       </c>
       <c r="EK361" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="362" spans="1:153" x14ac:dyDescent="0.25">
@@ -13802,7 +13796,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C362" t="s">
         <v>156</v>
@@ -13820,7 +13814,7 @@
         <v>119</v>
       </c>
       <c r="EK362" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="ET362">
         <v>1</v>
@@ -13831,7 +13825,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C363" t="s">
         <v>158</v>
@@ -13857,7 +13851,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C364" t="s">
         <v>378</v>
@@ -13878,7 +13872,7 @@
         <v>4</v>
       </c>
       <c r="EK364" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="365" spans="1:153" x14ac:dyDescent="0.25">
@@ -13886,7 +13880,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C365" t="s">
         <v>378</v>
@@ -13913,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="EK365" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="366" spans="1:153" x14ac:dyDescent="0.25">
@@ -13921,7 +13915,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C366" t="s">
         <v>344</v>
@@ -13957,7 +13951,7 @@
         <v>398</v>
       </c>
       <c r="EK366" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="367" spans="1:153" x14ac:dyDescent="0.25">
@@ -13965,7 +13959,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C367" t="s">
         <v>344</v>
@@ -14004,13 +13998,13 @@
         <v>10</v>
       </c>
       <c r="DY367" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="EA367" t="s">
         <v>289</v>
       </c>
       <c r="EK367" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="368" spans="1:153" x14ac:dyDescent="0.25">
@@ -14018,7 +14012,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C368" t="s">
         <v>9</v>
@@ -14054,7 +14048,7 @@
         <v>236</v>
       </c>
       <c r="EK368" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="369" spans="1:147" x14ac:dyDescent="0.25">
@@ -14062,7 +14056,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C369" t="s">
         <v>9</v>
@@ -14086,7 +14080,7 @@
         <v>3</v>
       </c>
       <c r="EK369" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="370" spans="1:147" x14ac:dyDescent="0.25">
@@ -14094,7 +14088,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C370" t="s">
         <v>344</v>
@@ -14118,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="EK370" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="371" spans="1:147" x14ac:dyDescent="0.25">
@@ -14126,7 +14120,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C371" t="s">
         <v>158</v>
@@ -14156,7 +14150,7 @@
         <v>338</v>
       </c>
       <c r="EK371" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="372" spans="1:147" x14ac:dyDescent="0.25">
@@ -14164,7 +14158,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C372" t="s">
         <v>311</v>
@@ -14191,7 +14185,7 @@
         <v>1</v>
       </c>
       <c r="EK372" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="373" spans="1:147" x14ac:dyDescent="0.25">
@@ -14199,7 +14193,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C373" t="s">
         <v>9</v>
@@ -14217,7 +14211,7 @@
         <v>108</v>
       </c>
       <c r="EK373" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="374" spans="1:147" x14ac:dyDescent="0.25">
@@ -14225,7 +14219,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C374" t="s">
         <v>378</v>
@@ -14248,7 +14242,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C375" t="s">
         <v>378</v>
@@ -14298,7 +14292,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C376" t="s">
         <v>378</v>
@@ -14321,7 +14315,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C377" t="s">
         <v>344</v>
@@ -14359,7 +14353,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C378" t="s">
         <v>158</v>
@@ -14394,7 +14388,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C379" t="s">
         <v>430</v>
@@ -14426,7 +14420,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C380" t="s">
         <v>9</v>
@@ -14449,7 +14443,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C381" t="s">
         <v>378</v>
@@ -14473,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="DY381" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EM381">
         <v>70</v>
@@ -14484,7 +14478,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C382" t="s">
         <v>378</v>
@@ -14510,7 +14504,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C383" t="s">
         <v>344</v>
@@ -14552,7 +14546,7 @@
         <v>1</v>
       </c>
       <c r="DY383" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="EM383">
         <v>80</v>
@@ -14563,7 +14557,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C384" t="s">
         <v>158</v>
@@ -14581,7 +14575,7 @@
         <v>151</v>
       </c>
       <c r="EA384" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="385" spans="1:143" x14ac:dyDescent="0.25">
@@ -14589,7 +14583,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C385" t="s">
         <v>9</v>
@@ -14624,7 +14618,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C386" t="s">
         <v>9</v>
@@ -14647,7 +14641,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C387" t="s">
         <v>344</v>
@@ -14685,7 +14679,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C388" t="s">
         <v>378</v>
